--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>poor</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -61,115 +64,103 @@
     <t>waste</t>
   </si>
   <si>
-    <t>however</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>pay</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>size</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>would</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>even</t>
+    <t>much</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>much</t>
+    <t>get</t>
   </si>
   <si>
     <t>toy</t>
@@ -193,12 +184,12 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -208,52 +199,52 @@
     <t>friends</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
+    <t>cute</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>playing</t>
+  </si>
+  <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>kids</t>
   </si>
   <si>
     <t>good</t>
@@ -617,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -736,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -754,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -778,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7605633802816901</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -804,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K5">
         <v>0.8172043010752689</v>
@@ -836,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7365591397849462</v>
+        <v>0.78125</v>
       </c>
       <c r="C6">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -878,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7281553398058253</v>
+        <v>0.7688172043010753</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D7">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.7358490566037735</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7272727272727273</v>
+        <v>0.7475728155339806</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.6284074605451937</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="L8">
-        <v>438</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>438</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>259</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -986,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.722972972972973</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="C9">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1004,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.5942028985507246</v>
+        <v>0.6183644189383071</v>
       </c>
       <c r="L9">
-        <v>41</v>
+        <v>431</v>
       </c>
       <c r="M9">
-        <v>41</v>
+        <v>431</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.671875</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1054,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.5643153526970954</v>
+        <v>0.5850622406639004</v>
       </c>
       <c r="L10">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="M10">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5966386554621849</v>
+        <v>0.6385542168674698</v>
       </c>
       <c r="C11">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1104,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.5434426229508197</v>
+        <v>0.5356849876948319</v>
       </c>
       <c r="L11">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="M11">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1136,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5903614457831325</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1154,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K12">
         <v>0.4656084656084656</v>
@@ -1186,37 +1177,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5523255813953488</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="C13">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.4464831804281346</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L13">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="M13">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1228,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>181</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1236,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5052631578947369</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C14">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1254,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.4337349397590362</v>
+        <v>0.4250764525993884</v>
       </c>
       <c r="L14">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="M14">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1278,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>94</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1286,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.492063492063492</v>
+        <v>0.5234375</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1304,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.3666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1328,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1336,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4881516587677725</v>
+        <v>0.4960629921259843</v>
       </c>
       <c r="C16">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D16">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,31 +1345,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.3307086614173229</v>
+        <v>0.359375</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1386,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4609375</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C17">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1404,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.2937062937062937</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1428,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1436,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4603174603174603</v>
+        <v>0.4549763033175355</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1454,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>0.272</v>
+        <v>0.28</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1478,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4409448818897638</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="C19">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1504,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.2698412698412698</v>
+        <v>0.2587412587412588</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1528,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1536,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.405940594059406</v>
+        <v>0.3564356435643564</v>
       </c>
       <c r="C20">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D20">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1554,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.2540322580645161</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L20">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M20">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N20">
         <v>0.98</v>
@@ -1578,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1586,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3483146067415731</v>
+        <v>0.3144329896907216</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1604,31 +1595,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>0.2510974539069359</v>
+        <v>0.2526881720430108</v>
       </c>
       <c r="L21">
-        <v>286</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>288</v>
+        <v>47</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>853</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1636,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3076923076923077</v>
+        <v>0.2898550724637681</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1654,31 +1645,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.2216216216216216</v>
+        <v>0.2326602282704126</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="M22">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>144</v>
+        <v>874</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1686,13 +1677,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3041237113402062</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C23">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1704,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.1883116883116883</v>
+        <v>0.1615598885793872</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1728,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>125</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1736,49 +1727,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2753164556962026</v>
+        <v>0.2603174603174603</v>
       </c>
       <c r="C24">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D24">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.1559888579387187</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="L24">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="M24">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>303</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1786,49 +1777,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2690909090909091</v>
+        <v>0.25</v>
       </c>
       <c r="C25">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D25">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E25">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.1530944625407166</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="L25">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>1300</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1836,37 +1827,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.26</v>
+        <v>0.2492581602373887</v>
       </c>
       <c r="C26">
+        <v>168</v>
+      </c>
+      <c r="D26">
+        <v>168</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>506</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26">
+        <v>0.1401617250673854</v>
+      </c>
+      <c r="L26">
         <v>52</v>
       </c>
-      <c r="D26">
-        <v>52</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>148</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26">
-        <v>0.1482479784366577</v>
-      </c>
-      <c r="L26">
+      <c r="M26">
         <v>55</v>
-      </c>
-      <c r="M26">
-        <v>58</v>
       </c>
       <c r="N26">
         <v>0.95</v>
@@ -1878,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,49 +1877,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2536023054755043</v>
+        <v>0.2468354430379747</v>
       </c>
       <c r="C27">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D27">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E27">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>0.09017496635262449</v>
+        <v>0.09627329192546584</v>
       </c>
       <c r="L27">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="N27">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O27">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>676</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1936,49 +1927,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2425595238095238</v>
+        <v>0.237410071942446</v>
       </c>
       <c r="C28">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="E28">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F28">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>509</v>
+        <v>106</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.06463195691202872</v>
+        <v>0.08957219251336898</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="N28">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O28">
-        <v>0.18</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>521</v>
+        <v>681</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1986,13 +1977,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2420382165605096</v>
+        <v>0.2289719626168224</v>
       </c>
       <c r="C29">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2004,31 +1995,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K29">
-        <v>0.06025824964131994</v>
+        <v>0.05270655270655271</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N29">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="O29">
-        <v>0.16</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>655</v>
+        <v>665</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2036,13 +2027,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2349206349206349</v>
+        <v>0.2276657060518732</v>
       </c>
       <c r="C30">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D30">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E30">
         <v>0.01</v>
@@ -2054,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>241</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2062,25 +2053,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2302158273381295</v>
+        <v>0.2228571428571429</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E31">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2088,13 +2079,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2196261682242991</v>
+        <v>0.2146596858638743</v>
       </c>
       <c r="C32">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2106,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2114,25 +2105,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2030905077262693</v>
+        <v>0.2123893805309734</v>
       </c>
       <c r="C33">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D33">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E33">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2140,13 +2131,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1885714285714286</v>
+        <v>0.2038216560509554</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2158,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2166,25 +2157,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.185792349726776</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>149</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2192,25 +2183,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1849056603773585</v>
+        <v>0.1505681818181818</v>
       </c>
       <c r="C36">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D36">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E36">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F36">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>216</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2218,25 +2209,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1766381766381766</v>
+        <v>0.1434426229508197</v>
       </c>
       <c r="C37">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D37">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E37">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="F37">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>289</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2244,25 +2235,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1735537190082645</v>
+        <v>0.1298342541436464</v>
       </c>
       <c r="C38">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D38">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E38">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F38">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2270,25 +2261,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1614583333333333</v>
+        <v>0.1218961625282167</v>
       </c>
       <c r="C39">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D39">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>161</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2296,25 +2287,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.157258064516129</v>
+        <v>0.1214642262895175</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D40">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>209</v>
+        <v>528</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2322,25 +2313,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1424050632911392</v>
+        <v>0.09176470588235294</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D41">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="F41">
-        <v>0.98</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>271</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2348,25 +2339,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1128668171557562</v>
+        <v>0.08961038961038961</v>
       </c>
       <c r="C42">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D42">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="E42">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="F42">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>393</v>
+        <v>701</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2374,25 +2365,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1105527638190955</v>
+        <v>0.07875894988066826</v>
       </c>
       <c r="C43">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E43">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="F43">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>531</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2400,103 +2391,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1090909090909091</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E44">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="F44">
-        <v>0.86</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.08461538461538462</v>
-      </c>
-      <c r="C45">
-        <v>66</v>
-      </c>
-      <c r="D45">
-        <v>80</v>
-      </c>
-      <c r="E45">
-        <v>0.17</v>
-      </c>
-      <c r="F45">
-        <v>0.83</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.08274231678486997</v>
-      </c>
-      <c r="C46">
-        <v>35</v>
-      </c>
-      <c r="D46">
-        <v>46</v>
-      </c>
-      <c r="E46">
-        <v>0.24</v>
-      </c>
-      <c r="F46">
-        <v>0.76</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.07919254658385093</v>
-      </c>
-      <c r="C47">
-        <v>51</v>
-      </c>
-      <c r="D47">
-        <v>62</v>
-      </c>
-      <c r="E47">
-        <v>0.18</v>
-      </c>
-      <c r="F47">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
